--- a/medicine/Psychotrope/Défense_de_fumer_(court_métrage)/Défense_de_fumer_(court_métrage).xlsx
+++ b/medicine/Psychotrope/Défense_de_fumer_(court_métrage)/Défense_de_fumer_(court_métrage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9fense_de_fumer_(court_m%C3%A9trage)</t>
+          <t>Défense_de_fumer_(court_métrage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Défense de fumer (No Smoking) est un court métrage d'animation américain de la série de Dingo, réalisé par les studios Disney, sorti en 1951.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9fense_de_fumer_(court_m%C3%A9trage)</t>
+          <t>Défense_de_fumer_(court_métrage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dingo, ici sous le nom de George Geef, essaye d'arrêter de fumer et tente plusieurs méthodes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9fense_de_fumer_(court_m%C3%A9trage)</t>
+          <t>Défense_de_fumer_(court_métrage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,23 +556,25 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : No Smoking
-Autres titres[1] :
+Autres titres :
  Finlande : Tupakanpoltto kielletty
  France : Défense de fumer
  Suède : Jan Långben slutar röka
 Série : Dingo
-Réalisateur[2]: Jack Kinney
+Réalisateur: Jack Kinney
 Scénariste : Dick Kinney, Milt Schaffer
 Voix : Pinto Colvig (Dingo)
 Producteur : Walt Disney
 Société  de  production : Walt Disney Productions
-Animateur[1] : Edwin Aardal, Hugh Fraser, George Nicholas, John Sibley
+Animateur : Edwin Aardal, Hugh Fraser, George Nicholas, John Sibley
 Layout: Al Zinnen
 Décors : Ralph Hulett
-Effets d'animation[1] : Blaine Gibson
+Effets d'animation : Blaine Gibson
 Distributeur : RKO Radio Pictures
 Musique: Paul J. Smith
 Format d'image : Couleur (Technicolor)
@@ -567,7 +583,7 @@
 Langue : (en)
 Pays :  États-Unis
 Dates de sortie :
-États-Unis : 23 novembre 1951[3]</t>
+États-Unis : 23 novembre 1951</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9fense_de_fumer_(court_m%C3%A9trage)</t>
+          <t>Défense_de_fumer_(court_métrage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,14 +613,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1er doublage (années 1970)
-Roger Rudel : Narrateur, le lifitier
+          <t>1er doublage (années 1970)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Roger Rudel : Narrateur, le lifitier
 Jacques Hilling : Dingo
 Jacques Marin : Un collègue de Dingo, le chef du "peloton d'exécution"
-Paul Bonifas : Le fumeur de cigares
-2e doublage (1990)
-Louis Bozon : Narrateur
-Gérard Rinaldi : Dingo</t>
+Paul Bonifas : Le fumeur de cigares</t>
         </is>
       </c>
     </row>
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9fense_de_fumer_(court_m%C3%A9trage)</t>
+          <t>Défense_de_fumer_(court_métrage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,10 +647,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2e doublage (1990)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Louis Bozon : Narrateur
+Gérard Rinaldi : Dingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Défense_de_fumer_(court_métrage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9fense_de_fumer_(court_m%C3%A9trage)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dingo porte ici pour une nouvelle fois le pseudonyme de George Geef, après Cold War, Tomorrow We Diet et Get Rich Quick (1951).
 </t>
